--- a/Results/documentation of the RAs (in corpus for subject 080700).xlsx
+++ b/Results/documentation of the RAs (in corpus for subject 080700).xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4074,6 +4074,261 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RA43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Numerical analysis of flame stabilization for a steady premixed jet in vitiated coflow</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>power engineering and engineering thermophysics</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>aerospace propulsion theory and engineering</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>航空宇航推进理论与工程</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>44040</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Combustion and Flame</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Stephen W. Grib</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>采用数值模拟的方法，研究了在层流稳定预混射流在自燃和火焰传播两种情况下的稳定性行为，可以更好地了解自燃稳定火焰的特性，得到稳定燃烧的规律曲线与控制方法。</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>李昱泽</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RA44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>The structure of turbulent stratified and premixed methane/air flames I: Non-swirling flows</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>power engineering and engineering thermophysics</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>aerospace propulsion theory and engineering</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>航空宇航推进理论与工程</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>41090</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Combustion and Flame</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Mark S. Sweeney</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>文章中因湍流而引起的火焰增厚主要受应变增加的影响这一发现不仅适用于预混火焰和分层火焰，同时还可以运用到在现有的和新兴的湍流火焰模型中作为一个实验性质的算例，非常具有挑战性。</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>李昱泽</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RA45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Large eddy simulations of the Darmstadt turbulent stratified flame series</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>power engineering and engineering thermophysics</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>aerospace propulsion theory and engineering</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>航空宇航推进理论与工程</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>41148</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Proceedings of the Combustion Institute</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>F. Cavallo Marincola</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>对达姆施塔特紊流分层火焰(TSF)燃烧器进行了大涡模拟，研究发现，采用的建模方法可以很好地预测TSF燃烧器的情况，同时存在前后支撑的分层模式，前者的可能性更大。</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>李昱泽</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Results/documentation of the RAs (in corpus for subject 080700).xlsx
+++ b/Results/documentation of the RAs (in corpus for subject 080700).xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1801,8 +1801,8 @@
           <t>叶轮机械</t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>2016</v>
+      <c r="H17" s="2" t="n">
+        <v>42370</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1887,8 +1887,8 @@
           <t>叶轮机械</t>
         </is>
       </c>
-      <c r="H18" t="n">
-        <v>2017</v>
+      <c r="H18" s="2" t="n">
+        <v>42736</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1972,8 +1972,8 @@
           <t>叶轮机械</t>
         </is>
       </c>
-      <c r="H19" t="n">
-        <v>2014</v>
+      <c r="H19" s="2" t="n">
+        <v>41640</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2057,8 +2057,8 @@
           <t>热能工程</t>
         </is>
       </c>
-      <c r="H20" t="n">
-        <v>2007</v>
+      <c r="H20" s="2" t="n">
+        <v>39083</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -2142,8 +2142,8 @@
           <t>热能工程</t>
         </is>
       </c>
-      <c r="H21" t="n">
-        <v>2019</v>
+      <c r="H21" s="2" t="n">
+        <v>43466</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -2227,8 +2227,8 @@
           <t>热能工程</t>
         </is>
       </c>
-      <c r="H22" t="n">
-        <v>2017</v>
+      <c r="H22" s="2" t="n">
+        <v>42736</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -2312,8 +2312,8 @@
           <t>工程热物理</t>
         </is>
       </c>
-      <c r="H23" t="n">
-        <v>2019</v>
+      <c r="H23" s="2" t="n">
+        <v>43466</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -2397,8 +2397,8 @@
           <t>工程热物理</t>
         </is>
       </c>
-      <c r="H24" t="n">
-        <v>2019</v>
+      <c r="H24" s="2" t="n">
+        <v>43466</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -2482,8 +2482,8 @@
           <t>工程热物理</t>
         </is>
       </c>
-      <c r="H25" t="n">
-        <v>2020</v>
+      <c r="H25" s="2" t="n">
+        <v>43831</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -2794,7 +2794,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Air-Blast Cross-Flow Atomization of Cold Fluids</t>
+          <t>Deep learning for high-dimensional reliability analysis</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Power Engineering and Thermophysics</t>
+          <t>Power Engineering and Engineering Thermal physics</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2812,22 +2812,12 @@
           <t>动力工程及工程热物理</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Power Machinery and Engineering</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>动力机械及工程</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>43487</v>
-      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Journal of Sustainable Metallurgy</t>
+          <t>Mechanical Systems and Signal Processing</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2842,22 +2832,22 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Alexander Vadillo</t>
+          <t>MingyangLi</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>China</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>The effect of certain process parameters on the characteristics of liquid droplets produced by air-blast atomization has been investigated.</t>
+          <t>This  paper  introduces  a  novel  high-dimensional  data  abstraction  (HDDA)  framework  for  dimension  reduction  in  reliability analysis</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>李志阳</t>
+          <t>徐兆辉</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -2879,7 +2869,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Combined effervescent and airblast atomization of a liquid jet</t>
+          <t>A new bivariate dimension reduction method for efﬁcient structural reliability analysis</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2889,7 +2879,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Power Engineering and Thermophysics</t>
+          <t>Power Engineering and Engineering Thermal physics</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2897,22 +2887,12 @@
           <t>动力工程及工程热物理</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Power Machinery and Engineering</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>动力机械及工程</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>42410</v>
-      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Experimental Thermal and Fluid Science</t>
+          <t>Mechanical Systems and Signal Processing</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2927,22 +2907,22 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>A. Kourmatzis</t>
+          <t>JunXu</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>China</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>This paper shows combined effervescent and airblast atomization of a liquid jet.</t>
+          <t>This  paper  presents  a  new  bivariate  dimension  reduction  method  (BDRM)  for  statistical moments  evaluation  and  structural  reliability  analysis  with  accuracy  and  efﬁciency</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>李志阳</t>
+          <t>徐兆辉</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2964,7 +2944,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Two-phase flow simulation of high-pressure gas atomization effect of molten metal and atomizing gas properties on droplet size distribution</t>
+          <t>Dynamic reliability analysis using the extended support vector regression(X-SVR)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2974,7 +2954,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Power Engineering and Thermophysics</t>
+          <t>Power Engineering and Engineering Thermal physics</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2982,22 +2962,12 @@
           <t>动力工程及工程热物理</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Power Machinery and Engineering</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>动力机械及工程</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>43704</v>
-      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Advanced Powder Technology</t>
+          <t>Mechanical Systems and Signal Processing</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3012,22 +2982,22 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Kalpana Hanthanan Arachchilage</t>
+          <t>JinwenFeng</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>China</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>This paper deals with the physics of high-pressure gas atomization in metal powder production.</t>
+          <t xml:space="preserve"> In this paper, a new machine learning based metamodel, namely the extended support  vector  regression  (X-SVR),  is  proposed  for  the  reliability  analysis  of  dynamic  systems   via  utilizing  the   ﬁrst-passage    theory. </t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>李志阳</t>
+          <t>徐兆辉</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3049,7 +3019,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Experimental/Numerical Study of Ducted-Fan Noise: Effect of Duct Inlet Shape</t>
+          <t>Structural sensitivity of spiral vortex breakdown</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3059,7 +3029,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Power engineering and engineering thermophysics</t>
+          <t>Power Engineering and Engineering Thermophysics</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3069,7 +3039,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fluid machinery and engineering</t>
+          <t>080704</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3077,14 +3047,12 @@
           <t>流体机械及工程</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>March 2018</t>
-        </is>
+      <c r="H32" t="n">
+        <v>2013</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>AIAA Journal</t>
+          <t>Journal of fluid mechanics</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3099,22 +3067,22 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Michael Shur</t>
+          <t>Ubaid Ali Qadri</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>英国</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>指出了进气畸变对于管道风扇噪声的巨大影响</t>
+          <t>螺旋状涡旋破碎的系统分析</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>孙宗翰</t>
+          <t>任勇智</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -3136,7 +3104,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Prediction of tonal ducted fan noise</t>
+          <t>threedimensional coherent structures in a swirling jet undergoing vortex breakdown stability analysis and empirical mode construction</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3146,7 +3114,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Power engineering and engineering thermophysics</t>
+          <t>Power Engineering and Engineering Thermophysics</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3156,7 +3124,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Fluid machinery and engineering</t>
+          <t>080704</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3164,14 +3132,12 @@
           <t>流体机械及工程</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>March 2016</t>
-        </is>
+      <c r="H33" t="n">
+        <v>2011</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Journal of Sound and Vibration</t>
+          <t>Journal of fluid mechanics</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3186,22 +3152,22 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>J. de Laborderie</t>
+          <t>B. T H I R I A</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>提出并推导了一种风扇/压气机动静干涉单音噪声预测分析模型并指导实际叶片设计</t>
+          <t>首次涡旋破碎的三维结构实验研究和稳定性分析</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>孙宗翰</t>
+          <t>任勇智</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3223,7 +3189,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Large Eddy Simulation of a scale-model turbofan for fan noise source diagnostic</t>
+          <t>stability properties of forced wakes</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3233,7 +3199,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Power engineering and engineering thermophysics</t>
+          <t>Power Engineering and Engineering Thermophysics</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3243,7 +3209,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Fluid machinery and engineering</t>
+          <t>080704</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3251,14 +3217,12 @@
           <t>流体机械及工程</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>January 2019</t>
-        </is>
+      <c r="H34" t="n">
+        <v>2007</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Journal of Sound and Vibration</t>
+          <t>Journal of fluid mechanics</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3273,22 +3237,22 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Carlos Pérez Arroyo</t>
+          <t>K. O B E R L E I T H N E R</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>法国</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>首次成功完成NASA源诊断试验涡扇发动机紊流壁模型统计收敛大涡模拟(LES)并与试验结果吻合良好</t>
+          <t>首次圆柱绕流尾迹的线性稳定性分析</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>孙宗翰</t>
+          <t>任勇智</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3310,7 +3274,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Effects  of wall  temperature on slagging and  ash  deposition of Zhundong coal  during circulating fluidized bed  gasification</t>
+          <t>Air-Blast Cross-Flow Atomization of Cold Fluids</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3320,7 +3284,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Power engineering and Engineering Thermophysics</t>
+          <t>Power Engineering and Thermophysics</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3330,22 +3294,20 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>thermal engineering</t>
+          <t>Power Machinery and Engineering</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>热能工程</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2019.06.15</t>
-        </is>
+          <t>动力机械及工程</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>43487</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Applied Thermal Engineering</t>
+          <t>Journal of Sustainable Metallurgy</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3360,22 +3322,22 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Xiaobin Qi</t>
+          <t>Alexander Vadillo</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>揭示了准东煤在循环流化床气化过程中的结渣和沾污特性</t>
+          <t>The effect of certain process parameters on the characteristics of liquid droplets produced by air-blast atomization has been investigated.</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>马瑞</t>
+          <t>李志阳</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3397,7 +3359,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hydrogen production by Zhundong coal gasification in supercritical water</t>
+          <t>Combined effervescent and airblast atomization of a liquid jet</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3407,7 +3369,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Power engineering and Engineering Thermophysics</t>
+          <t>Power Engineering and Thermophysics</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3417,22 +3379,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>thermal engineering</t>
+          <t>Power Machinery and Engineering</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>热能工程</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2015.10.20</t>
-        </is>
+          <t>动力机械及工程</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>42410</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>International Journal of Hydrogen Energy</t>
+          <t>Experimental Thermal and Fluid Science</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3447,22 +3407,22 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Hui Jin</t>
+          <t>A. Kourmatzis</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>通过超临界水气化技术实现了准东煤的清洁高效利用</t>
+          <t>This paper shows combined effervescent and airblast atomization of a liquid jet.</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>马瑞</t>
+          <t>李志阳</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -3484,7 +3444,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The ash deposition mechanism in boilers burning Zhundong coal with high contents of sodium and calcium A study from ash evaporating to condensing</t>
+          <t>Two-phase flow simulation of high-pressure gas atomization effect of molten metal and atomizing gas properties on droplet size distribution</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3494,7 +3454,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Power engineering and Engineering Thermophysics</t>
+          <t>Power Engineering and Thermophysics</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3504,22 +3464,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>thermal engineering</t>
+          <t>Power Machinery and Engineering</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>热能工程</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2015.01.28</t>
-        </is>
+          <t>动力机械及工程</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>43704</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Applied Thermal Engineering</t>
+          <t>Advanced Powder Technology</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3534,22 +3492,22 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Xuebin Wang</t>
+          <t>Kalpana Hanthanan Arachchilage</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>中国</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>揭示了准东煤燃烧过程中钠的迁移过程</t>
+          <t>This paper deals with the physics of high-pressure gas atomization in metal powder production.</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>马瑞</t>
+          <t>李志阳</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3571,7 +3529,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Numerical and Experimental Assessment of a Solenoid Common-Rail  Injector Operation with Advanced Injection Strategies</t>
+          <t>Experimental/Numerical Study of Ducted-Fan Noise: Effect of Duct Inlet Shape</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3581,7 +3539,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Power Engineering and Thermophysics</t>
+          <t>Power engineering and engineering thermophysics</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3591,20 +3549,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Power machinery and Engineering</t>
+          <t>Fluid machinery and engineering</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>动力机械与工程</t>
+          <t>流体机械及工程</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
-        <v>42465</v>
+        <v>43160</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>SAE INTERNATIONAL</t>
+          <t>AIAA Journal</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3619,22 +3577,22 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Piano,Andrea</t>
+          <t>Michael Shur</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>意大利</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>The model was validated using experimental data obtained by a Zeuch’s method injection analyzer</t>
+          <t>指出了进气畸变对于管道风扇噪声的巨大影响</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>王先勇</t>
+          <t>孙宗翰</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3656,7 +3614,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mathematical modelling of a diesel common-rail system</t>
+          <t>Prediction of tonal ducted fan noise</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3666,7 +3624,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Power Engineering and Thermophysics</t>
+          <t>Power engineering and engineering thermophysics</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3676,20 +3634,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Power machinery and Engineering</t>
+          <t>Fluid machinery and engineering</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>动力机械与工程</t>
+          <t>流体机械及工程</t>
         </is>
       </c>
       <c r="H39" s="2" t="n">
-        <v>41901</v>
+        <v>42430</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Mathematical and Computer Modelling of Dynamical Systems</t>
+          <t>Journal of Sound and Vibration</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3704,22 +3662,22 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Katharina Prinz</t>
+          <t>J. de Laborderie</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>奥地利</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>an average model is derived to reduce the model complexity and to allow for a fast calculation of the mass flow into the rail for different crank shaft revolution speeds and openings of the fuel metering unit</t>
+          <t>提出并推导了一种风扇/压气机动静干涉单音噪声预测分析模型并指导实际叶片设计</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>王先勇</t>
+          <t>孙宗翰</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -3741,7 +3699,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Optical device for measuring the injectors opening in common rail systems</t>
+          <t>Large Eddy Simulation of a scale-model turbofan for fan noise source diagnostic</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -3751,7 +3709,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Power Engineering and Thermophysics</t>
+          <t>Power engineering and engineering thermophysics</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3761,20 +3719,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Power machinery and Engineering</t>
+          <t>Fluid machinery and engineering</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>动力机械与工程</t>
+          <t>流体机械及工程</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
-        <v>42879</v>
+        <v>43466</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>International Journal of Automotive Technology</t>
+          <t>Journal of Sound and Vibration</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3789,22 +3747,22 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Riccardo Amirante</t>
+          <t>Carlos Pérez Arroyo</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>意大利</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>a new device for measuring the injector opening is proposed: it is an optical transducer characterized both by simple and very cheap construction and by a reliable physical principle for measuring the control piston lift</t>
+          <t>首次成功完成NASA源诊断试验涡扇发动机紊流壁模型统计收敛大涡模拟(LES)并与试验结果吻合良好</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>王先勇</t>
+          <t>孙宗翰</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -3826,7 +3784,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Co-designing electronics with microfluidics for more sustainable cooling</t>
+          <t>Effects  of wall  temperature on slagging and  ash  deposition of Zhundong coal  during circulating fluidized bed  gasification</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3836,7 +3794,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Power Engineering and Engineering Thermophysics</t>
+          <t>Power engineering and Engineering Thermophysics</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3846,20 +3804,20 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>engineering thermophysic</t>
+          <t>thermal engineering</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>工程热物理</t>
+          <t>热能工程</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
-        <v>44022</v>
+        <v>43631</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Nature</t>
+          <t>Applied Thermal Engineering</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3874,22 +3832,22 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Remco van Erp</t>
+          <t>Xiaobin Qi</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>瑞士</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>利用微流体冷却与电子元器件结构设计的结合，大大降低冷却的能耗</t>
+          <t>揭示了准东煤在循环流化床气化过程中的结渣和沾污特性</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>汪大海</t>
+          <t>马瑞</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -3911,7 +3869,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Heat pipe dryout and temperature hysteresis in response to transient heat pulses exceeding the capillary limit</t>
+          <t>Hydrogen production by Zhundong coal gasification in supercritical water</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3921,7 +3879,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Power Engineering and Engineering Thermophysics</t>
+          <t>Power engineering and Engineering Thermophysics</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3931,20 +3889,20 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>engineering thermophysic</t>
+          <t>thermal engineering</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>工程热物理</t>
+          <t>热能工程</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
-        <v>43796</v>
+        <v>42297</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>International Journal of Heat and Mass Transfer</t>
+          <t>International Journal of Hydrogen Energy</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3959,22 +3917,22 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Kalind Baraya</t>
+          <t>Hui Jin</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>研究瞬态高热流密度脉冲对热管干涸和温度滞后的影响，为热管在高功率的电子散热方面提供理论指导</t>
+          <t>通过超临界水气化技术实现了准东煤的清洁高效利用</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>汪大海</t>
+          <t>马瑞</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -3996,334 +3954,844 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>The ash deposition mechanism in boilers burning Zhundong coal with high contents of sodium and calcium A study from ash evaporating to condensing</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Power engineering and Engineering Thermophysics</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>thermal engineering</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>热能工程</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>42032</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Applied Thermal Engineering</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Xuebin Wang</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>中国</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>揭示了准东煤燃烧过程中钠的迁移过程</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>马瑞</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>RA43</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Numerical and Experimental Assessment of a Solenoid Common-Rail  Injector Operation with Advanced Injection Strategies</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Power Engineering and Thermophysics</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Power machinery and Engineering</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>动力机械与工程</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>42465</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>SAE INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Piano,Andrea</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>意大利</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>The model was validated using experimental data obtained by a Zeuch’s method injection analyzer</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>王先勇</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>RA44</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Mathematical modelling of a diesel common-rail system</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Power Engineering and Thermophysics</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Power machinery and Engineering</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>动力机械与工程</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>41901</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Mathematical and Computer Modelling of Dynamical Systems</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Katharina Prinz</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>奥地利</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>an average model is derived to reduce the model complexity and to allow for a fast calculation of the mass flow into the rail for different crank shaft revolution speeds and openings of the fuel metering unit</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>王先勇</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>RA45</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Optical device for measuring the injectors opening in common rail systems</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Power Engineering and Thermophysics</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Power machinery and Engineering</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>动力机械与工程</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>42879</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>International Journal of Automotive Technology</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Riccardo Amirante</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>意大利</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>a new device for measuring the injector opening is proposed: it is an optical transducer characterized both by simple and very cheap construction and by a reliable physical principle for measuring the control piston lift</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>王先勇</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>RA46</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Co-designing electronics with microfluidics for more sustainable cooling</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Power Engineering and Engineering Thermophysics</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>engineering thermophysic</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>工程热物理</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>44022</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Nature</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Remco van Erp</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>瑞士</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>利用微流体冷却与电子元器件结构设计的结合，大大降低冷却的能耗</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>汪大海</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>RA47</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Heat pipe dryout and temperature hysteresis in response to transient heat pulses exceeding the capillary limit</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Power Engineering and Engineering Thermophysics</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>engineering thermophysic</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>工程热物理</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>43796</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>International Journal of Heat and Mass Transfer</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>SCI</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Kalind Baraya</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>研究瞬态高热流密度脉冲对热管干涸和温度滞后的影响，为热管在高功率的电子散热方面提供理论指导</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>汪大海</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>RA48</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>A numerical model for transport in flat heat pipes considering wick
 microstructure effects</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>080700</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>Power Engineering and Engineering Thermophysics</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
         <is>
           <t>engineering thermophysic</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>工程热物理</t>
         </is>
       </c>
-      <c r="H43" s="2" t="n">
+      <c r="H49" s="2" t="n">
         <v>40427</v>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>International Journal of Heat and Mass Transfer</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>SCI</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>Ram Ranjan</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>美国</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>考虑热管芯体微观结构对平板热管输运数值模型的影响，使得热管的数值计算更加贴近工程实际</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>汪大海</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>RA43</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>RA49</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Numerical analysis of flame stabilization for a steady premixed jet in vitiated coflow</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>080700</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>power engineering and engineering thermophysics</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
         <is>
           <t>aerospace propulsion theory and engineering</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>航空宇航推进理论与工程</t>
         </is>
       </c>
-      <c r="H44" s="2" t="n">
+      <c r="H50" s="2" t="n">
         <v>44040</v>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>Combustion and Flame</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>SCI</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>Stephen W. Grib</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>采用数值模拟的方法，研究了在层流稳定预混射流在自燃和火焰传播两种情况下的稳定性行为，可以更好地了解自燃稳定火焰的特性，得到稳定燃烧的规律曲线与控制方法。</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>李昱泽</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>RA44</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>RA50</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>The structure of turbulent stratified and premixed methane/air flames I: Non-swirling flows</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>080700</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>power engineering and engineering thermophysics</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
         <is>
           <t>aerospace propulsion theory and engineering</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>航空宇航推进理论与工程</t>
         </is>
       </c>
-      <c r="H45" s="2" t="n">
+      <c r="H51" s="2" t="n">
         <v>41090</v>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>Combustion and Flame</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>SCI</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>Mark S. Sweeney</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>文章中因湍流而引起的火焰增厚主要受应变增加的影响这一发现不仅适用于预混火焰和分层火焰，同时还可以运用到在现有的和新兴的湍流火焰模型中作为一个实验性质的算例，非常具有挑战性。</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>李昱泽</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>M31</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>RA45</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>M31</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>RA51</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Large eddy simulations of the Darmstadt turbulent stratified flame series</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>080700</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>080700</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>power engineering and engineering thermophysics</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>动力工程及工程热物理</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>动力工程及工程热物理</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
         <is>
           <t>aerospace propulsion theory and engineering</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>航空宇航推进理论与工程</t>
         </is>
       </c>
-      <c r="H46" s="2" t="n">
+      <c r="H52" s="2" t="n">
         <v>41148</v>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>Proceedings of the Combustion Institute</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>SCI</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>F. Cavallo Marincola</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="M52" t="inlineStr">
         <is>
           <t>UK</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="N52" t="inlineStr">
         <is>
           <t>对达姆施塔特紊流分层火焰(TSF)燃烧器进行了大涡模拟，研究发现，采用的建模方法可以很好地预测TSF燃烧器的情况，同时存在前后支撑的分层模式，前者的可能性更大。</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="O52" t="inlineStr">
         <is>
           <t>李昱泽</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>020</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>020</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>M31</t>
         </is>
